--- a/data_raw/P21145_Results_final.xlsx
+++ b/data_raw/P21145_Results_final.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hsjdbcn.es\dfsroot\Recursos\metabolismosinaptico\SOFIA\metabolomics_rett_grin\data_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\killescas\OneDrive - San Juan de Dios\Desktop\GitHub\metabolomics\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5760" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="28680" yWindow="5760" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Tryptophan &amp; metabolites" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="674">
   <si>
     <t>Cortisol</t>
   </si>
@@ -1937,6 +1937,129 @@
   <si>
     <t xml:space="preserve">Indole-3-propionic acid </t>
   </si>
+  <si>
+    <t>GRIN.1</t>
+  </si>
+  <si>
+    <t>GRIN.2</t>
+  </si>
+  <si>
+    <t>STXBP1.1</t>
+  </si>
+  <si>
+    <t>KearnSyre.1</t>
+  </si>
+  <si>
+    <t>FOLR1.1</t>
+  </si>
+  <si>
+    <t>CDKL5.1</t>
+  </si>
+  <si>
+    <t>FOXG1.1</t>
+  </si>
+  <si>
+    <t>MeCP2.1</t>
+  </si>
+  <si>
+    <t>MeCP2.2</t>
+  </si>
+  <si>
+    <t>MeCP2.3</t>
+  </si>
+  <si>
+    <t>MeCP2.4</t>
+  </si>
+  <si>
+    <t>BCKDK.1</t>
+  </si>
+  <si>
+    <t>EEM.1</t>
+  </si>
+  <si>
+    <t>NKH.1</t>
+  </si>
+  <si>
+    <t>Control.1</t>
+  </si>
+  <si>
+    <t>Control.2</t>
+  </si>
+  <si>
+    <t>GRIN.3</t>
+  </si>
+  <si>
+    <t>GRIN.5</t>
+  </si>
+  <si>
+    <t>STXBP1.2</t>
+  </si>
+  <si>
+    <t>KearnSyre.2</t>
+  </si>
+  <si>
+    <t>CDKL5.2</t>
+  </si>
+  <si>
+    <t>EnoilCoA.1</t>
+  </si>
+  <si>
+    <t>MeCP2.5</t>
+  </si>
+  <si>
+    <t>MeCP2.6</t>
+  </si>
+  <si>
+    <t>MeCP2.7</t>
+  </si>
+  <si>
+    <t>MeCP2.8</t>
+  </si>
+  <si>
+    <t>BCKDK.2</t>
+  </si>
+  <si>
+    <t>EEM.2</t>
+  </si>
+  <si>
+    <t>Control.3</t>
+  </si>
+  <si>
+    <t>Control.4</t>
+  </si>
+  <si>
+    <t>GRIN.6</t>
+  </si>
+  <si>
+    <t>GRIN.7</t>
+  </si>
+  <si>
+    <t>STXBP1.3</t>
+  </si>
+  <si>
+    <t>STXBP1.4</t>
+  </si>
+  <si>
+    <t>FOLR1.2</t>
+  </si>
+  <si>
+    <t>MeCP2.9</t>
+  </si>
+  <si>
+    <t>MeCP2.10</t>
+  </si>
+  <si>
+    <t>MeCP2.11</t>
+  </si>
+  <si>
+    <t>MeCP2.12</t>
+  </si>
+  <si>
+    <t>BCKDK.3</t>
+  </si>
+  <si>
+    <t>Control.5</t>
+  </si>
 </sst>
 </file>
 
@@ -2358,8 +2481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS59"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2507,8 +2630,8 @@
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>268</v>
+      <c r="A2" t="s">
+        <v>633</v>
       </c>
       <c r="B2" s="3">
         <v>0.48540661385881712</v>
@@ -2616,8 +2739,8 @@
       <c r="AS2" s="3"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>269</v>
+      <c r="A3" t="s">
+        <v>634</v>
       </c>
       <c r="B3" s="3">
         <v>0.4892332681980312</v>
@@ -2725,8 +2848,8 @@
       <c r="AS3" s="3"/>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>270</v>
+      <c r="A4" t="s">
+        <v>635</v>
       </c>
       <c r="B4" s="3">
         <v>0.57754078403026921</v>
@@ -2834,8 +2957,8 @@
       <c r="AS4" s="3"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>271</v>
+      <c r="A5" t="s">
+        <v>636</v>
       </c>
       <c r="B5" s="3">
         <v>0.24477307778048801</v>
@@ -2943,8 +3066,8 @@
       <c r="AS5" s="3"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>272</v>
+      <c r="A6" t="s">
+        <v>637</v>
       </c>
       <c r="B6" s="3">
         <v>0.40524710682567983</v>
@@ -3052,8 +3175,8 @@
       <c r="AS6" s="3"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>273</v>
+      <c r="A7" t="s">
+        <v>638</v>
       </c>
       <c r="B7" s="3">
         <v>0.44303420787981262</v>
@@ -3161,8 +3284,8 @@
       <c r="AS7" s="3"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>274</v>
+      <c r="A8" t="s">
+        <v>639</v>
       </c>
       <c r="B8" s="3">
         <v>0.49507839574468698</v>
@@ -3270,8 +3393,8 @@
       <c r="AS8" s="3"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>275</v>
+      <c r="A9" t="s">
+        <v>640</v>
       </c>
       <c r="B9" s="3">
         <v>0.44758042522811659</v>
@@ -3379,8 +3502,8 @@
       <c r="AS9" s="3"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>276</v>
+      <c r="A10" t="s">
+        <v>641</v>
       </c>
       <c r="B10" s="3">
         <v>0.40215267805473315</v>
@@ -3488,8 +3611,8 @@
       <c r="AS10" s="3"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>277</v>
+      <c r="A11" t="s">
+        <v>642</v>
       </c>
       <c r="B11" s="3">
         <v>0.4384608882841084</v>
@@ -3597,8 +3720,8 @@
       <c r="AS11" s="3"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>278</v>
+      <c r="A12" t="s">
+        <v>643</v>
       </c>
       <c r="B12" s="3">
         <v>0.48181145952600113</v>
@@ -3706,8 +3829,8 @@
       <c r="AS12" s="3"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>279</v>
+      <c r="A13" t="s">
+        <v>644</v>
       </c>
       <c r="B13" s="3">
         <v>0.36802526761895987</v>
@@ -3815,8 +3938,8 @@
       <c r="AS13" s="3"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>280</v>
+      <c r="A14" t="s">
+        <v>645</v>
       </c>
       <c r="B14" s="3">
         <v>0.23718774627399505</v>
@@ -3922,8 +4045,8 @@
       <c r="AS14" s="3"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>281</v>
+      <c r="A15" t="s">
+        <v>646</v>
       </c>
       <c r="B15" s="3">
         <v>0.34902890728168323</v>
@@ -4031,8 +4154,8 @@
       <c r="AS15" s="3"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>282</v>
+      <c r="A16" t="s">
+        <v>647</v>
       </c>
       <c r="B16" s="3">
         <v>0.32457655380453021</v>
@@ -4138,8 +4261,8 @@
       <c r="AS16" s="3"/>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>283</v>
+      <c r="A17" t="s">
+        <v>648</v>
       </c>
       <c r="B17" s="3">
         <v>0.63877997916412932</v>
@@ -4245,8 +4368,8 @@
       <c r="AS17" s="3"/>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>284</v>
+      <c r="A18" t="s">
+        <v>649</v>
       </c>
       <c r="B18" s="3">
         <v>0.63044081408188435</v>
@@ -4354,8 +4477,8 @@
       <c r="AS18" s="3"/>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>286</v>
+      <c r="A19" t="s">
+        <v>650</v>
       </c>
       <c r="B19" s="3">
         <v>0.736994819341662</v>
@@ -4463,8 +4586,8 @@
       <c r="AS19" s="3"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>287</v>
+      <c r="A20" t="s">
+        <v>651</v>
       </c>
       <c r="B20" s="3">
         <v>0.53450841165361407</v>
@@ -4572,8 +4695,8 @@
       <c r="AS20" s="3"/>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>288</v>
+      <c r="A21" t="s">
+        <v>652</v>
       </c>
       <c r="B21" s="3">
         <v>0.28731194503529928</v>
@@ -4681,8 +4804,8 @@
       <c r="AS21" s="3"/>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>289</v>
+      <c r="A22" t="s">
+        <v>653</v>
       </c>
       <c r="B22" s="3">
         <v>0.62151728524374383</v>
@@ -4790,8 +4913,8 @@
       <c r="AS22" s="3"/>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>290</v>
+      <c r="A23" t="s">
+        <v>654</v>
       </c>
       <c r="B23" s="3">
         <v>0.67178625550906657</v>
@@ -4897,8 +5020,8 @@
       <c r="AS23" s="3"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>291</v>
+      <c r="A24" t="s">
+        <v>655</v>
       </c>
       <c r="B24" s="3">
         <v>0.40041400069491795</v>
@@ -5006,8 +5129,8 @@
       <c r="AS24" s="3"/>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>292</v>
+      <c r="A25" t="s">
+        <v>656</v>
       </c>
       <c r="B25" s="3">
         <v>0.63636185030469627</v>
@@ -5115,8 +5238,8 @@
       <c r="AS25" s="3"/>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>293</v>
+      <c r="A26" t="s">
+        <v>657</v>
       </c>
       <c r="B26" s="3">
         <v>0.5167450469150543</v>
@@ -5224,8 +5347,8 @@
       <c r="AS26" s="3"/>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>294</v>
+      <c r="A27" t="s">
+        <v>658</v>
       </c>
       <c r="B27" s="3">
         <v>0.46169373905014954</v>
@@ -5333,8 +5456,8 @@
       <c r="AS27" s="3"/>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>295</v>
+      <c r="A28" t="s">
+        <v>659</v>
       </c>
       <c r="B28" s="3">
         <v>0.61478667547693056</v>
@@ -5442,8 +5565,8 @@
       <c r="AS28" s="3"/>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>296</v>
+      <c r="A29" t="s">
+        <v>660</v>
       </c>
       <c r="B29" s="3">
         <v>0.38678605052037984</v>
@@ -5551,8 +5674,8 @@
       <c r="AS29" s="3"/>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>297</v>
+      <c r="A30" t="s">
+        <v>661</v>
       </c>
       <c r="B30" s="3">
         <v>0.34846486251588182</v>
@@ -5660,8 +5783,8 @@
       <c r="AS30" s="3"/>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>298</v>
+      <c r="A31" t="s">
+        <v>662</v>
       </c>
       <c r="B31" s="3">
         <v>0.37843794827365018</v>
@@ -5769,8 +5892,8 @@
       <c r="AS31" s="3"/>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>299</v>
+      <c r="A32" t="s">
+        <v>663</v>
       </c>
       <c r="B32" s="3">
         <v>0.42429993575674885</v>
@@ -5878,8 +6001,8 @@
       <c r="AS32" s="3"/>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>300</v>
+      <c r="A33" t="s">
+        <v>664</v>
       </c>
       <c r="B33" s="3">
         <v>0.49074072021697268</v>
@@ -5987,8 +6110,8 @@
       <c r="AS33" s="3"/>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>301</v>
+      <c r="A34" t="s">
+        <v>665</v>
       </c>
       <c r="B34" s="3">
         <v>0.51528316330916291</v>
@@ -6096,8 +6219,8 @@
       <c r="AS34" s="3"/>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>302</v>
+      <c r="A35" t="s">
+        <v>666</v>
       </c>
       <c r="B35" s="3">
         <v>0.50886920648830436</v>
@@ -6205,8 +6328,8 @@
       <c r="AS35" s="3"/>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>303</v>
+      <c r="A36" t="s">
+        <v>667</v>
       </c>
       <c r="B36" s="3">
         <v>0.60937430339175946</v>
@@ -6314,8 +6437,8 @@
       <c r="AS36" s="3"/>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>304</v>
+      <c r="A37" t="s">
+        <v>668</v>
       </c>
       <c r="B37" s="3">
         <v>0.37062102427816174</v>
@@ -6423,8 +6546,8 @@
       <c r="AS37" s="3"/>
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>305</v>
+      <c r="A38" t="s">
+        <v>669</v>
       </c>
       <c r="B38" s="3">
         <v>0.43532765399434964</v>
@@ -6532,8 +6655,8 @@
       <c r="AS38" s="3"/>
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>306</v>
+      <c r="A39" t="s">
+        <v>670</v>
       </c>
       <c r="B39" s="3">
         <v>0.43303997360492913</v>
@@ -6641,8 +6764,8 @@
       <c r="AS39" s="3"/>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>307</v>
+      <c r="A40" t="s">
+        <v>671</v>
       </c>
       <c r="B40" s="3">
         <v>0.37120455141541275</v>
@@ -6750,8 +6873,8 @@
       <c r="AS40" s="3"/>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>308</v>
+      <c r="A41" t="s">
+        <v>672</v>
       </c>
       <c r="B41" s="3">
         <v>0.54654430351943639</v>
@@ -6855,8 +6978,8 @@
       <c r="AS41" s="3"/>
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>309</v>
+      <c r="A42" t="s">
+        <v>673</v>
       </c>
       <c r="B42" s="3">
         <v>0.27122000533117008</v>
@@ -74193,8 +74316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74361,8 +74484,8 @@
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>268</v>
+      <c r="A2" t="s">
+        <v>633</v>
       </c>
       <c r="B2" s="14">
         <v>107.56627272727273</v>
@@ -74522,8 +74645,8 @@
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>269</v>
+      <c r="A3" t="s">
+        <v>634</v>
       </c>
       <c r="B3" s="14">
         <v>60.091272727272731</v>
@@ -74683,8 +74806,8 @@
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>270</v>
+      <c r="A4" t="s">
+        <v>635</v>
       </c>
       <c r="B4" s="14">
         <v>163.87309090909091</v>
@@ -74844,8 +74967,8 @@
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>271</v>
+      <c r="A5" t="s">
+        <v>636</v>
       </c>
       <c r="B5" s="14">
         <v>359.54581818181822</v>
@@ -75005,8 +75128,8 @@
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>272</v>
+      <c r="A6" t="s">
+        <v>637</v>
       </c>
       <c r="B6" s="14">
         <v>64.127636363636356</v>
@@ -75166,8 +75289,8 @@
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>273</v>
+      <c r="A7" t="s">
+        <v>638</v>
       </c>
       <c r="B7" s="14">
         <v>151.10945454545455</v>
@@ -75327,8 +75450,8 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>274</v>
+      <c r="A8" t="s">
+        <v>639</v>
       </c>
       <c r="B8" s="14">
         <v>70.393545454545446</v>
@@ -75488,8 +75611,8 @@
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>275</v>
+      <c r="A9" t="s">
+        <v>640</v>
       </c>
       <c r="B9" s="14">
         <v>10.095818181818183</v>
@@ -75649,8 +75772,8 @@
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>276</v>
+      <c r="A10" t="s">
+        <v>641</v>
       </c>
       <c r="B10" s="14">
         <v>9.1480909090909091</v>
@@ -75810,8 +75933,8 @@
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>277</v>
+      <c r="A11" t="s">
+        <v>642</v>
       </c>
       <c r="B11" s="14">
         <v>88.104909090909089</v>
@@ -75971,8 +76094,8 @@
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>278</v>
+      <c r="A12" t="s">
+        <v>643</v>
       </c>
       <c r="B12" s="14">
         <v>110.54127272727273</v>
@@ -76132,8 +76255,8 @@
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>279</v>
+      <c r="A13" t="s">
+        <v>644</v>
       </c>
       <c r="B13" s="14">
         <v>7.3571818181818189</v>
@@ -76293,8 +76416,8 @@
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>280</v>
+      <c r="A14" t="s">
+        <v>645</v>
       </c>
       <c r="B14" s="14">
         <v>301.31400000000008</v>
@@ -76454,8 +76577,8 @@
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>281</v>
+      <c r="A15" t="s">
+        <v>646</v>
       </c>
       <c r="B15" s="14">
         <v>1.7367272727272729</v>
@@ -76615,8 +76738,8 @@
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>282</v>
+      <c r="A16" t="s">
+        <v>647</v>
       </c>
       <c r="B16" s="14">
         <v>179.95263636363637</v>
@@ -76776,8 +76899,8 @@
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>283</v>
+      <c r="A17" t="s">
+        <v>648</v>
       </c>
       <c r="B17" s="14">
         <v>87.348090909090914</v>
@@ -76937,8 +77060,8 @@
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>284</v>
+      <c r="A18" t="s">
+        <v>649</v>
       </c>
       <c r="B18" s="14">
         <v>157.4458181818182</v>
@@ -77098,8 +77221,8 @@
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>286</v>
+      <c r="A19" t="s">
+        <v>650</v>
       </c>
       <c r="B19" s="14">
         <v>1.2503636363636366</v>
@@ -77259,8 +77382,8 @@
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>287</v>
+      <c r="A20" t="s">
+        <v>651</v>
       </c>
       <c r="B20" s="14">
         <v>30.039000000000001</v>
@@ -77420,8 +77543,8 @@
       </c>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>288</v>
+      <c r="A21" t="s">
+        <v>652</v>
       </c>
       <c r="B21" s="14">
         <v>442.03900000000004</v>
@@ -77581,8 +77704,8 @@
       </c>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>289</v>
+      <c r="A22" t="s">
+        <v>653</v>
       </c>
       <c r="B22" s="14">
         <v>84.75036363636363</v>
@@ -77742,8 +77865,8 @@
       </c>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>290</v>
+      <c r="A23" t="s">
+        <v>654</v>
       </c>
       <c r="B23" s="14">
         <v>745.81172727272724</v>
@@ -77903,8 +78026,8 @@
       </c>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>291</v>
+      <c r="A24" t="s">
+        <v>655</v>
       </c>
       <c r="B24" s="14">
         <v>172.77309090909091</v>
@@ -78064,8 +78187,8 @@
       </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>292</v>
+      <c r="A25" t="s">
+        <v>656</v>
       </c>
       <c r="B25" s="14">
         <v>109.68900000000001</v>
@@ -78225,8 +78348,8 @@
       </c>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>293</v>
+      <c r="A26" t="s">
+        <v>657</v>
       </c>
       <c r="B26" s="14">
         <v>87.900363636363636</v>
@@ -78386,8 +78509,8 @@
       </c>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>294</v>
+      <c r="A27" t="s">
+        <v>658</v>
       </c>
       <c r="B27" s="14">
         <v>53.323090909090908</v>
@@ -78547,8 +78670,8 @@
       </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>295</v>
+      <c r="A28" t="s">
+        <v>659</v>
       </c>
       <c r="B28" s="14">
         <v>0.76854545454545464</v>
@@ -78708,8 +78831,8 @@
       </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>296</v>
+      <c r="A29" t="s">
+        <v>660</v>
       </c>
       <c r="B29" s="14">
         <v>394.44127272727275</v>
@@ -78869,8 +78992,8 @@
       </c>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>297</v>
+      <c r="A30" t="s">
+        <v>661</v>
       </c>
       <c r="B30" s="14">
         <v>185.85263636363635</v>
@@ -79030,8 +79153,8 @@
       </c>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>298</v>
+      <c r="A31" t="s">
+        <v>662</v>
       </c>
       <c r="B31" s="14">
         <v>3.9458181818181823</v>
@@ -79191,8 +79314,8 @@
       </c>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>299</v>
+      <c r="A32" t="s">
+        <v>663</v>
       </c>
       <c r="B32" s="14">
         <v>185.60718181818183</v>
@@ -79352,8 +79475,8 @@
       </c>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>300</v>
+      <c r="A33" t="s">
+        <v>664</v>
       </c>
       <c r="B33" s="14">
         <v>1.2867272727272729</v>
@@ -79513,8 +79636,8 @@
       </c>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>301</v>
+      <c r="A34" t="s">
+        <v>665</v>
       </c>
       <c r="B34" s="14">
         <v>74.770818181818186</v>
@@ -79674,8 +79797,8 @@
       </c>
     </row>
     <row r="35" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>302</v>
+      <c r="A35" t="s">
+        <v>666</v>
       </c>
       <c r="B35" s="14">
         <v>165.06854545454547</v>
@@ -79835,8 +79958,8 @@
       </c>
     </row>
     <row r="36" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>303</v>
+      <c r="A36" t="s">
+        <v>667</v>
       </c>
       <c r="B36" s="14">
         <v>214.35718181818183</v>
@@ -79996,8 +80119,8 @@
       </c>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>304</v>
+      <c r="A37" t="s">
+        <v>668</v>
       </c>
       <c r="B37" s="14">
         <v>39.357181818181822</v>
@@ -80157,8 +80280,8 @@
       </c>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>305</v>
+      <c r="A38" t="s">
+        <v>669</v>
       </c>
       <c r="B38" s="14">
         <v>72.479909090909089</v>
@@ -80318,8 +80441,8 @@
       </c>
     </row>
     <row r="39" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>306</v>
+      <c r="A39" t="s">
+        <v>670</v>
       </c>
       <c r="B39" s="14">
         <v>5.5958181818181822</v>
@@ -80479,8 +80602,8 @@
       </c>
     </row>
     <row r="40" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>307</v>
+      <c r="A40" t="s">
+        <v>671</v>
       </c>
       <c r="B40" s="14">
         <v>193.97990909090908</v>
@@ -80640,8 +80763,8 @@
       </c>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>308</v>
+      <c r="A41" t="s">
+        <v>672</v>
       </c>
       <c r="B41" s="14">
         <v>8.4594545454545464</v>
@@ -80801,8 +80924,8 @@
       </c>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>309</v>
+      <c r="A42" t="s">
+        <v>673</v>
       </c>
       <c r="B42" s="14">
         <v>104.45718181818182</v>
